--- a/Blik/processen.xlsx
+++ b/Blik/processen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="730">
   <si>
     <t>Onderstaande handelingen zijn overgenomen uit het Besluit vaststelling selectielijst neerslag handelingen beleidsterrein Gezondheid en welzijn van dieren vanaf 1945 (Minister van Landbouw, Natuur en Voedselkwaliteit, 2008)</t>
   </si>
@@ -26,9 +26,6 @@
     <t>[Handeling]</t>
   </si>
   <si>
-    <t>omschrijving</t>
-  </si>
-  <si>
     <t>gezegde</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>[Concept;]</t>
   </si>
   <si>
-    <t>Periode</t>
-  </si>
-  <si>
     <t>[Producttype,]</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
   </si>
   <si>
     <t>Regeling</t>
-  </si>
-  <si>
-    <t>57</t>
   </si>
   <si>
     <t>Het medeling doen aan buitenlanden van het uitbreken van een besmettelijke veezieke</t>
@@ -2227,6 +2218,12 @@
   </si>
   <si>
     <t>546</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>aap</t>
   </si>
 </sst>
 </file>
@@ -2262,7 +2259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2276,6 +2273,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -2577,412 +2575,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J130"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="33.140625" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>728</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E3" t="s">
         <v>19</v>
       </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="330" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="360" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="375" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
       <c r="J10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="315" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="J11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="225" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
         <v>81</v>
@@ -2990,447 +2994,447 @@
       <c r="F13" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
         <v>88</v>
       </c>
-      <c r="F15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="285" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="E17" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" t="s">
-        <v>92</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="270" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="390" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="360" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="I19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="345" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" t="s">
         <v>103</v>
       </c>
-      <c r="C20" t="s">
-        <v>63</v>
-      </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="E20" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>39</v>
+        <v>105</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="H20" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="I20" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="J20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>105</v>
       </c>
-      <c r="C21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" t="s">
-        <v>108</v>
-      </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" t="s">
         <v>109</v>
-      </c>
-      <c r="H21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I21" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" t="s">
-        <v>112</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E23" t="s">
-        <v>108</v>
-      </c>
-      <c r="F23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H23" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="B24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="J23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="225" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="345" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="H25" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="330" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" t="s">
-        <v>125</v>
-      </c>
-      <c r="F26" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H26" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>127</v>
       </c>
+      <c r="B27" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>128</v>
+        <v>109</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="E27" t="s">
         <v>129</v>
@@ -3439,2142 +3443,2142 @@
         <v>129</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" t="s">
         <v>1</v>
       </c>
-      <c r="I27" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="s">
+        <v>30</v>
+      </c>
+      <c r="J28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" t="s">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
-        <v>132</v>
-      </c>
-      <c r="F28" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H28" t="s">
-        <v>32</v>
-      </c>
-      <c r="I28" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
-        <v>136</v>
-      </c>
-      <c r="F29" t="s">
-        <v>136</v>
-      </c>
       <c r="G29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H29" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" t="s">
         <v>139</v>
       </c>
-      <c r="C30" t="s">
-        <v>36</v>
-      </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="F30" t="s">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H30" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I30" t="s">
+        <v>142</v>
+      </c>
+      <c r="J30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="J30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C31" t="s">
-        <v>142</v>
-      </c>
       <c r="D31" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="H31" t="s">
+        <v>56</v>
       </c>
       <c r="I31" t="s">
         <v>145</v>
       </c>
       <c r="J31" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="270" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>146</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E32" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I32" t="s">
         <v>30</v>
       </c>
-      <c r="F32" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H32" t="s">
-        <v>59</v>
-      </c>
-      <c r="I32" t="s">
-        <v>148</v>
-      </c>
       <c r="J32" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="270" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>149</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>59</v>
+      <c r="H33" t="s">
+        <v>56</v>
       </c>
       <c r="I33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" t="s">
         <v>153</v>
       </c>
-      <c r="C34" t="s">
-        <v>112</v>
-      </c>
       <c r="D34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" t="s">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
-        <v>151</v>
-      </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="255" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>154</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
         <v>157</v>
       </c>
-      <c r="E35" t="s">
-        <v>1</v>
-      </c>
       <c r="F35" t="s">
-        <v>1</v>
+        <v>157</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H35" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>25</v>
+      <c r="H35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s">
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>158</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" t="s">
+        <v>105</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" t="s">
+        <v>161</v>
+      </c>
+      <c r="I36" t="s">
+        <v>30</v>
+      </c>
+      <c r="J36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H37" t="s">
+        <v>166</v>
+      </c>
+      <c r="I37" t="s">
+        <v>167</v>
+      </c>
+      <c r="J37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" t="s">
+        <v>170</v>
+      </c>
+      <c r="D38" t="s">
+        <v>171</v>
+      </c>
+      <c r="E38" t="s">
+        <v>172</v>
+      </c>
+      <c r="F38" t="s">
+        <v>172</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s">
+        <v>173</v>
+      </c>
+      <c r="J38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" t="s">
+        <v>172</v>
+      </c>
+      <c r="F39" t="s">
+        <v>172</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="s">
+        <v>173</v>
+      </c>
+      <c r="J39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" t="s">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" t="s">
-        <v>160</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I36" t="s">
-        <v>25</v>
-      </c>
-      <c r="J36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" t="s">
-        <v>164</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="E40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I40" t="s">
+        <v>30</v>
+      </c>
+      <c r="J40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" t="s">
         <v>33</v>
       </c>
-      <c r="J37" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="270" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="D41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F41" t="s">
+        <v>180</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" t="s">
-        <v>108</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H38" t="s">
-        <v>169</v>
-      </c>
-      <c r="I38" t="s">
-        <v>170</v>
-      </c>
-      <c r="J38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="255" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" t="s">
-        <v>173</v>
-      </c>
-      <c r="D39" t="s">
-        <v>174</v>
-      </c>
-      <c r="E39" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" t="s">
-        <v>175</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H39" t="s">
-        <v>32</v>
-      </c>
-      <c r="I39" t="s">
-        <v>176</v>
-      </c>
-      <c r="J39" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="360" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C40" t="s">
-        <v>173</v>
-      </c>
-      <c r="D40" t="s">
-        <v>174</v>
-      </c>
-      <c r="E40" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" t="s">
-        <v>175</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H40" t="s">
-        <v>32</v>
-      </c>
-      <c r="I40" t="s">
-        <v>176</v>
-      </c>
-      <c r="J40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="255" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C41" t="s">
-        <v>142</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="300" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>181</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="E42" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="F42" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="H42" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I42" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" t="s">
         <v>33</v>
       </c>
-      <c r="J42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="390" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" t="s">
-        <v>74</v>
-      </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="F43" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="G43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H43" t="s">
-        <v>32</v>
-      </c>
-      <c r="I43" t="s">
-        <v>33</v>
-      </c>
-      <c r="J43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="C44" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F44" t="s">
-        <v>30</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="H44" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="I44" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="J44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>190</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="D45" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="E45" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F45" t="s">
-        <v>151</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>192</v>
+        <v>148</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I45" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="J45" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="270" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>193</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D46" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E46" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F46" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I46" t="s">
+        <v>30</v>
+      </c>
+      <c r="J46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C47" t="s">
         <v>33</v>
       </c>
-      <c r="J46" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="270" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C47" t="s">
-        <v>199</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="D47" s="4" t="s">
         <v>200</v>
       </c>
       <c r="E47" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F47" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J47" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="4" t="s">
         <v>203</v>
       </c>
+      <c r="D48" t="s">
+        <v>204</v>
+      </c>
       <c r="E48" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="F48" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H48" t="s">
         <v>1</v>
       </c>
-      <c r="H48" t="s">
-        <v>32</v>
-      </c>
       <c r="I48" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="J48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="390" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>204</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" t="s">
+        <v>208</v>
+      </c>
+      <c r="E49" t="s">
+        <v>105</v>
+      </c>
+      <c r="F49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" t="s">
         <v>205</v>
       </c>
-      <c r="C49" t="s">
-        <v>206</v>
-      </c>
-      <c r="D49" t="s">
-        <v>207</v>
-      </c>
-      <c r="E49" t="s">
-        <v>92</v>
-      </c>
-      <c r="F49" t="s">
-        <v>92</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
-        <v>208</v>
-      </c>
       <c r="J49" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>209</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="F50" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="I50" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J50" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="240" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>212</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C51" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="E51" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="F51" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H51" t="s">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" t="s">
+        <v>49</v>
+      </c>
+      <c r="J51" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="I51" t="s">
-        <v>208</v>
-      </c>
-      <c r="J51" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D52" t="s">
         <v>218</v>
       </c>
-      <c r="C52" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" t="s">
-        <v>196</v>
-      </c>
       <c r="E52" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="I52" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="J52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="285" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>219</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="D53" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E53" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>208</v>
+        <v>49</v>
       </c>
       <c r="J53" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>223</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C54" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E54" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="F54" t="s">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>32</v>
+        <v>165</v>
+      </c>
+      <c r="H54" t="s">
+        <v>56</v>
       </c>
       <c r="I54" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="J54" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>227</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
+        <v>193</v>
+      </c>
+      <c r="E55" t="s">
+        <v>223</v>
+      </c>
+      <c r="F55" t="s">
+        <v>223</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" t="s">
+        <v>49</v>
+      </c>
+      <c r="J55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H55" t="s">
-        <v>59</v>
-      </c>
-      <c r="I55" t="s">
-        <v>208</v>
-      </c>
-      <c r="J55" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="360" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" t="s">
         <v>231</v>
       </c>
-      <c r="C56" t="s">
-        <v>63</v>
-      </c>
       <c r="D56" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>226</v>
+        <v>35</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>59</v>
+        <v>233</v>
+      </c>
+      <c r="H56" t="s">
+        <v>234</v>
       </c>
       <c r="I56" t="s">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="J56" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>232</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C57" t="s">
-        <v>234</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>235</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>236</v>
+        <v>36</v>
       </c>
       <c r="H57" t="s">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s">
-        <v>238</v>
+        <v>173</v>
       </c>
       <c r="J57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="240" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>239</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" t="s">
+        <v>232</v>
+      </c>
+      <c r="E58" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="I58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" t="s">
+        <v>238</v>
+      </c>
+      <c r="F59" t="s">
+        <v>238</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D58" t="s">
-        <v>91</v>
-      </c>
-      <c r="E58" t="s">
-        <v>241</v>
-      </c>
-      <c r="F58" t="s">
-        <v>241</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H58" t="s">
-        <v>32</v>
-      </c>
-      <c r="I58" t="s">
-        <v>176</v>
-      </c>
-      <c r="J58" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C59" t="s">
-        <v>74</v>
-      </c>
-      <c r="D59" t="s">
-        <v>235</v>
-      </c>
-      <c r="E59" t="s">
-        <v>38</v>
-      </c>
-      <c r="F59" t="s">
-        <v>38</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H59" s="4" t="s">
+      <c r="H59" t="s">
         <v>245</v>
       </c>
       <c r="I59" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="J59" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="5" t="s">
         <v>247</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
+        <v>248</v>
+      </c>
+      <c r="E60" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" t="s">
+        <v>238</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H60" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60" t="s">
+        <v>173</v>
+      </c>
+      <c r="J60" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H61" t="s">
         <v>56</v>
       </c>
-      <c r="E60" t="s">
-        <v>241</v>
-      </c>
-      <c r="F60" t="s">
-        <v>241</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H60" t="s">
-        <v>248</v>
-      </c>
-      <c r="I60" t="s">
-        <v>176</v>
-      </c>
-      <c r="J60" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C61" t="s">
-        <v>173</v>
-      </c>
-      <c r="D61" t="s">
-        <v>251</v>
-      </c>
-      <c r="E61" t="s">
-        <v>241</v>
-      </c>
-      <c r="F61" t="s">
-        <v>241</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H61" t="s">
-        <v>32</v>
-      </c>
       <c r="I61" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="J61" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="315" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>252</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>253</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="D62" t="s">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H62" t="s">
+        <v>256</v>
+      </c>
+      <c r="I62" t="s">
+        <v>173</v>
+      </c>
+      <c r="J62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D63" t="s">
         <v>254</v>
       </c>
-      <c r="H62" t="s">
-        <v>59</v>
-      </c>
-      <c r="I62" t="s">
-        <v>25</v>
-      </c>
-      <c r="J62" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="360" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="E63" t="s">
+        <v>238</v>
+      </c>
+      <c r="F63" t="s">
+        <v>238</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H63" t="s">
         <v>256</v>
       </c>
-      <c r="C63" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63" t="s">
-        <v>257</v>
-      </c>
-      <c r="E63" t="s">
-        <v>241</v>
-      </c>
-      <c r="F63" t="s">
-        <v>241</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H63" t="s">
-        <v>259</v>
-      </c>
       <c r="I63" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>260</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>261</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D64" t="s">
-        <v>257</v>
+        <v>53</v>
       </c>
       <c r="E64" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F64" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H64" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" t="s">
+        <v>173</v>
+      </c>
+      <c r="J64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="H64" t="s">
-        <v>259</v>
-      </c>
-      <c r="I64" t="s">
-        <v>176</v>
-      </c>
-      <c r="J64" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="255" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="C65" t="s">
         <v>264</v>
       </c>
-      <c r="C65" t="s">
-        <v>55</v>
-      </c>
       <c r="D65" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="E65" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="F65" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="240" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>265</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C66" t="s">
-        <v>267</v>
+        <v>52</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>268</v>
       </c>
       <c r="E66" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F66" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H66" t="s">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="I66" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="J66" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>269</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C67" t="s">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="E67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="H67" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="I67" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J67" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="285" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>274</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>275</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
       <c r="E68" t="s">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c r="F68" t="s">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H68" t="s">
-        <v>222</v>
+        <v>279</v>
       </c>
       <c r="I68" t="s">
-        <v>176</v>
+        <v>280</v>
       </c>
       <c r="J68" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="255" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>278</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="D69" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E69" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
+        <v>180</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>281</v>
+        <v>165</v>
       </c>
       <c r="H69" t="s">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>283</v>
+        <v>49</v>
       </c>
       <c r="J69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
         <v>284</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>285</v>
       </c>
       <c r="C70" t="s">
-        <v>156</v>
+        <v>231</v>
       </c>
       <c r="D70" t="s">
+        <v>232</v>
+      </c>
+      <c r="E70" t="s">
+        <v>27</v>
+      </c>
+      <c r="F70" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E70" t="s">
-        <v>183</v>
-      </c>
-      <c r="F70" t="s">
-        <v>183</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H70" t="s">
-        <v>32</v>
+      <c r="H70" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="I70" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" t="s">
+        <v>254</v>
+      </c>
+      <c r="E71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H71" t="s">
+        <v>291</v>
+      </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C72" t="s">
         <v>52</v>
       </c>
-      <c r="J70" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C71" t="s">
-        <v>234</v>
-      </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I72" t="s">
         <v>235</v>
       </c>
-      <c r="E71" t="s">
-        <v>30</v>
-      </c>
-      <c r="F71" t="s">
-        <v>30</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="I71" t="s">
-        <v>25</v>
-      </c>
-      <c r="J71" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="270" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C72" t="s">
-        <v>74</v>
-      </c>
-      <c r="D72" t="s">
-        <v>257</v>
-      </c>
-      <c r="E72" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="H72" t="s">
-        <v>294</v>
-      </c>
-      <c r="I72" t="s">
-        <v>25</v>
-      </c>
       <c r="J72" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" ht="255" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>295</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>296</v>
       </c>
       <c r="C73" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D73" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H73" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" t="s">
+        <v>235</v>
+      </c>
+      <c r="J73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="I73" t="s">
-        <v>238</v>
-      </c>
-      <c r="J73" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="405" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="C74" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>32</v>
+        <v>294</v>
       </c>
       <c r="I74" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="J74" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="C75" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>297</v>
+        <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="J75" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="330" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="D76" t="s">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J76" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="225" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="C77" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" t="s">
+        <v>277</v>
+      </c>
+      <c r="E77" t="s">
+        <v>157</v>
+      </c>
+      <c r="F77" t="s">
+        <v>157</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C77" t="s">
-        <v>142</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="H77" t="s">
+        <v>306</v>
+      </c>
+      <c r="I77" t="s">
+        <v>307</v>
+      </c>
+      <c r="J77" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C78" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" t="s">
+        <v>34</v>
+      </c>
+      <c r="E78" t="s">
+        <v>157</v>
+      </c>
+      <c r="F78" t="s">
+        <v>157</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E77" t="s">
-        <v>76</v>
-      </c>
-      <c r="F77" t="s">
-        <v>76</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I77" t="s">
-        <v>238</v>
-      </c>
-      <c r="J77" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="375" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="H78" t="s">
+        <v>29</v>
+      </c>
+      <c r="I78" t="s">
         <v>307</v>
       </c>
-      <c r="C78" t="s">
-        <v>74</v>
-      </c>
-      <c r="D78" t="s">
-        <v>280</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="J78" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C79" t="s">
         <v>160</v>
       </c>
-      <c r="F78" t="s">
-        <v>160</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="H78" t="s">
-        <v>309</v>
-      </c>
-      <c r="I78" t="s">
-        <v>310</v>
-      </c>
-      <c r="J78" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="225" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C79" t="s">
-        <v>36</v>
-      </c>
       <c r="D79" t="s">
-        <v>37</v>
+        <v>218</v>
       </c>
       <c r="E79" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F79" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>32</v>
+        <v>219</v>
       </c>
       <c r="I79" t="s">
-        <v>310</v>
+        <v>22</v>
       </c>
       <c r="J79" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="330" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" t="s">
+        <v>71</v>
+      </c>
+      <c r="D80" t="s">
         <v>314</v>
       </c>
-      <c r="C80" t="s">
-        <v>163</v>
-      </c>
-      <c r="D80" t="s">
-        <v>221</v>
-      </c>
       <c r="E80" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>1</v>
+        <v>165</v>
       </c>
       <c r="H80" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I80" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="J80" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" ht="375" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
         <v>315</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>316</v>
       </c>
       <c r="C81" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" t="s">
+        <v>35</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H81" t="s">
+        <v>56</v>
+      </c>
+      <c r="I81" t="s">
+        <v>173</v>
+      </c>
+      <c r="J81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="E81" t="s">
-        <v>175</v>
-      </c>
-      <c r="F81" t="s">
-        <v>175</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H81" t="s">
-        <v>216</v>
-      </c>
-      <c r="I81" t="s">
-        <v>176</v>
-      </c>
-      <c r="J81" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" ht="285" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" t="s">
+        <v>153</v>
+      </c>
+      <c r="D82" t="s">
         <v>319</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
+        <v>27</v>
+      </c>
+      <c r="F82" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H82" t="s">
+        <v>321</v>
+      </c>
+      <c r="I82" t="s">
+        <v>322</v>
+      </c>
+      <c r="J82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C83" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" t="s">
+        <v>325</v>
+      </c>
+      <c r="E83" t="s">
+        <v>326</v>
+      </c>
+      <c r="F83" t="s">
+        <v>326</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H83" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" t="s">
+        <v>173</v>
+      </c>
+      <c r="J83" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C84" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" t="s">
+        <v>326</v>
+      </c>
+      <c r="F84" t="s">
+        <v>326</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H84" t="s">
+        <v>29</v>
+      </c>
+      <c r="I84" t="s">
+        <v>173</v>
+      </c>
+      <c r="J84" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" t="s">
+        <v>88</v>
+      </c>
+      <c r="E85" t="s">
+        <v>331</v>
+      </c>
+      <c r="F85" t="s">
+        <v>331</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85" t="s">
+        <v>173</v>
+      </c>
+      <c r="J85" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" t="s">
+        <v>88</v>
+      </c>
+      <c r="E86" t="s">
+        <v>27</v>
+      </c>
+      <c r="F86" t="s">
+        <v>27</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" t="s">
+        <v>205</v>
+      </c>
+      <c r="J86" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C87" t="s">
+        <v>337</v>
+      </c>
+      <c r="D87" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" t="s">
+        <v>338</v>
+      </c>
+      <c r="F87" t="s">
+        <v>338</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H87" t="s">
+        <v>219</v>
+      </c>
+      <c r="I87" t="s">
+        <v>173</v>
+      </c>
+      <c r="J87" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C88" t="s">
+        <v>341</v>
+      </c>
+      <c r="D88" t="s">
+        <v>342</v>
+      </c>
+      <c r="E88" t="s">
+        <v>338</v>
+      </c>
+      <c r="F88" t="s">
+        <v>338</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D82" t="s">
-        <v>37</v>
-      </c>
-      <c r="E82" t="s">
-        <v>38</v>
-      </c>
-      <c r="F82" t="s">
-        <v>38</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H82" t="s">
-        <v>59</v>
-      </c>
-      <c r="I82" t="s">
-        <v>176</v>
-      </c>
-      <c r="J82" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="405" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C83" t="s">
-        <v>156</v>
-      </c>
-      <c r="D83" t="s">
-        <v>322</v>
-      </c>
-      <c r="E83" t="s">
-        <v>30</v>
-      </c>
-      <c r="F83" t="s">
-        <v>30</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H83" t="s">
-        <v>324</v>
-      </c>
-      <c r="I83" t="s">
-        <v>325</v>
-      </c>
-      <c r="J83" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C84" t="s">
-        <v>95</v>
-      </c>
-      <c r="D84" t="s">
-        <v>328</v>
-      </c>
-      <c r="E84" t="s">
-        <v>329</v>
-      </c>
-      <c r="F84" t="s">
-        <v>329</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H84" t="s">
-        <v>32</v>
-      </c>
-      <c r="I84" t="s">
-        <v>176</v>
-      </c>
-      <c r="J84" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D85" t="s">
-        <v>91</v>
-      </c>
-      <c r="E85" t="s">
-        <v>329</v>
-      </c>
-      <c r="F85" t="s">
-        <v>329</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H85" t="s">
-        <v>32</v>
-      </c>
-      <c r="I85" t="s">
-        <v>176</v>
-      </c>
-      <c r="J85" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C86" t="s">
-        <v>36</v>
-      </c>
-      <c r="D86" t="s">
-        <v>91</v>
-      </c>
-      <c r="E86" t="s">
-        <v>334</v>
-      </c>
-      <c r="F86" t="s">
-        <v>334</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="H86" t="s">
-        <v>32</v>
-      </c>
-      <c r="I86" t="s">
-        <v>176</v>
-      </c>
-      <c r="J86" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="270" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C87" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" t="s">
-        <v>91</v>
-      </c>
-      <c r="E87" t="s">
-        <v>30</v>
-      </c>
-      <c r="F87" t="s">
-        <v>30</v>
-      </c>
-      <c r="G87" s="2" t="s">
+      <c r="H88" t="s">
+        <v>343</v>
+      </c>
+      <c r="I88" t="s">
+        <v>173</v>
+      </c>
+      <c r="J88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C89" t="s">
+        <v>153</v>
+      </c>
+      <c r="D89" t="s">
+        <v>346</v>
+      </c>
+      <c r="E89" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H89" t="s">
         <v>1</v>
       </c>
-      <c r="H87" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I87" t="s">
-        <v>208</v>
-      </c>
-      <c r="J87" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="375" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C88" t="s">
-        <v>340</v>
-      </c>
-      <c r="D88" t="s">
-        <v>221</v>
-      </c>
-      <c r="E88" t="s">
-        <v>341</v>
-      </c>
-      <c r="F88" t="s">
-        <v>341</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H88" t="s">
-        <v>222</v>
-      </c>
-      <c r="I88" t="s">
-        <v>176</v>
-      </c>
-      <c r="J88" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C89" t="s">
-        <v>344</v>
-      </c>
-      <c r="D89" t="s">
-        <v>345</v>
-      </c>
-      <c r="E89" t="s">
-        <v>341</v>
-      </c>
-      <c r="F89" t="s">
-        <v>341</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H89" t="s">
-        <v>346</v>
-      </c>
       <c r="I89" t="s">
-        <v>176</v>
+        <v>348</v>
       </c>
       <c r="J89" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="390" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>347</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C90" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="D90" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E90" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="H90" t="s">
         <v>1</v>
       </c>
+      <c r="H90" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="I90" t="s">
-        <v>351</v>
+        <v>173</v>
       </c>
       <c r="J90" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="330" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>353</v>
       </c>
       <c r="C91" t="s">
-        <v>95</v>
+        <v>354</v>
       </c>
       <c r="D91" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="E91" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F91" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G91" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H91" t="s">
+        <v>213</v>
+      </c>
+      <c r="I91" t="s">
+        <v>355</v>
+      </c>
+      <c r="J91" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C92" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" t="s">
+        <v>218</v>
+      </c>
+      <c r="E92" t="s">
+        <v>338</v>
+      </c>
+      <c r="F92" t="s">
+        <v>338</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H92" t="s">
+        <v>219</v>
+      </c>
+      <c r="I92" t="s">
+        <v>173</v>
+      </c>
+      <c r="J92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C93" t="s">
+        <v>139</v>
+      </c>
+      <c r="D93" t="s">
         <v>1</v>
       </c>
-      <c r="H91" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I91" t="s">
-        <v>176</v>
-      </c>
-      <c r="J91" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C92" t="s">
-        <v>357</v>
-      </c>
-      <c r="D92" t="s">
-        <v>317</v>
-      </c>
-      <c r="E92" t="s">
-        <v>143</v>
-      </c>
-      <c r="F92" t="s">
-        <v>143</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H92" t="s">
-        <v>216</v>
-      </c>
-      <c r="I92" t="s">
-        <v>358</v>
-      </c>
-      <c r="J92" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B93" s="2" t="s">
+      <c r="E93" t="s">
         <v>360</v>
       </c>
-      <c r="C93" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" t="s">
-        <v>221</v>
-      </c>
-      <c r="E93" t="s">
-        <v>341</v>
-      </c>
       <c r="F93" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H93" t="s">
-        <v>222</v>
+        <v>56</v>
       </c>
       <c r="I93" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J93" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" ht="225" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
         <v>361</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>362</v>
       </c>
       <c r="C94" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="D94" t="s">
-        <v>1</v>
+        <v>248</v>
       </c>
       <c r="E94" t="s">
         <v>363</v>
@@ -5583,30 +5587,30 @@
         <v>363</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H94" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="I94" t="s">
-        <v>176</v>
+        <v>348</v>
       </c>
       <c r="J94" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="300" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
         <v>364</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>365</v>
       </c>
       <c r="C95" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="D95" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="E95" t="s">
         <v>366</v>
@@ -5615,190 +5619,190 @@
         <v>366</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H95" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="I95" t="s">
-        <v>351</v>
+        <v>173</v>
       </c>
       <c r="J95" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" ht="330" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
         <v>367</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>368</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="D96" t="s">
-        <v>48</v>
+        <v>369</v>
       </c>
       <c r="E96" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F96" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H96" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="I96" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J96" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
         <v>370</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>371</v>
       </c>
       <c r="C97" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D97" t="s">
+        <v>45</v>
+      </c>
+      <c r="E97" t="s">
+        <v>366</v>
+      </c>
+      <c r="F97" t="s">
+        <v>366</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H97" t="s">
         <v>372</v>
       </c>
-      <c r="E97" t="s">
-        <v>369</v>
-      </c>
-      <c r="F97" t="s">
-        <v>369</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H97" t="s">
-        <v>32</v>
-      </c>
       <c r="I97" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J97" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" ht="285" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
         <v>373</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>374</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>375</v>
       </c>
       <c r="D98" t="s">
-        <v>48</v>
+        <v>376</v>
       </c>
       <c r="E98" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="F98" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H98" t="s">
-        <v>375</v>
+        <v>56</v>
       </c>
       <c r="I98" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J98" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" ht="330" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>376</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" t="s">
         <v>377</v>
       </c>
-      <c r="C99" t="s">
-        <v>378</v>
-      </c>
-      <c r="D99" t="s">
-        <v>379</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
+        <v>377</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H99" t="s">
+        <v>56</v>
+      </c>
+      <c r="I99" t="s">
+        <v>173</v>
+      </c>
+      <c r="J99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="F99" t="s">
-        <v>380</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H99" t="s">
-        <v>59</v>
-      </c>
-      <c r="I99" t="s">
-        <v>176</v>
-      </c>
-      <c r="J99" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" t="s">
         <v>382</v>
       </c>
-      <c r="C100" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" t="s">
-        <v>37</v>
-      </c>
-      <c r="E100" t="s">
-        <v>380</v>
-      </c>
       <c r="F100" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H100" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I100" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="J100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
         <v>383</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>384</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="D101" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E101" t="s">
         <v>385</v>
@@ -5807,804 +5811,804 @@
         <v>385</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H101" t="s">
-        <v>59</v>
+        <v>386</v>
       </c>
       <c r="I101" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="J101" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>386</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C102" t="s">
-        <v>142</v>
+        <v>337</v>
       </c>
       <c r="D102" t="s">
+        <v>40</v>
+      </c>
+      <c r="E102" t="s">
+        <v>126</v>
+      </c>
+      <c r="F102" t="s">
+        <v>126</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E102" t="s">
-        <v>388</v>
-      </c>
-      <c r="F102" t="s">
-        <v>388</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H102" t="s">
+      <c r="H102" s="2" t="s">
         <v>389</v>
       </c>
       <c r="I102" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="J102" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="270" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>390</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>391</v>
       </c>
       <c r="C103" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="D103" t="s">
-        <v>43</v>
+        <v>232</v>
       </c>
       <c r="E103" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F103" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>392</v>
+        <v>256</v>
       </c>
       <c r="I103" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J103" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="240" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
         <v>393</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>394</v>
       </c>
       <c r="C104" t="s">
+        <v>71</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
         <v>395</v>
       </c>
-      <c r="D104" t="s">
-        <v>235</v>
-      </c>
-      <c r="E104" t="s">
-        <v>129</v>
-      </c>
       <c r="F104" t="s">
-        <v>129</v>
+        <v>395</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>259</v>
+        <v>165</v>
+      </c>
+      <c r="H104" t="s">
+        <v>29</v>
       </c>
       <c r="I104" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="J104" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" ht="225" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
         <v>396</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>397</v>
       </c>
       <c r="C105" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="D105" t="s">
+        <v>232</v>
+      </c>
+      <c r="E105" t="s">
         <v>1</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="F105" t="s">
-        <v>398</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>168</v>
-      </c>
       <c r="H105" t="s">
-        <v>32</v>
+        <v>399</v>
       </c>
       <c r="I105" t="s">
-        <v>176</v>
+        <v>400</v>
       </c>
       <c r="J105" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>399</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C106" t="s">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="D106" t="s">
-        <v>235</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
+        <v>403</v>
+      </c>
+      <c r="F106" t="s">
+        <v>403</v>
+      </c>
+      <c r="G106" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F106" t="s">
-        <v>1</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="H106" t="s">
-        <v>402</v>
+      <c r="H106" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I106" t="s">
-        <v>403</v>
+        <v>173</v>
       </c>
       <c r="J106" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" ht="225" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>404</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>405</v>
       </c>
       <c r="C107" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="D107" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E107" t="s">
+        <v>35</v>
+      </c>
+      <c r="F107" t="s">
+        <v>35</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H107" t="s">
+        <v>56</v>
+      </c>
+      <c r="I107" t="s">
+        <v>30</v>
+      </c>
+      <c r="J107" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F107" t="s">
-        <v>406</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I107" t="s">
-        <v>176</v>
-      </c>
-      <c r="J107" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="225" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="C108" t="s">
+        <v>33</v>
+      </c>
+      <c r="D108" t="s">
+        <v>88</v>
+      </c>
+      <c r="E108" t="s">
+        <v>27</v>
+      </c>
+      <c r="F108" t="s">
+        <v>27</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H108" t="s">
+        <v>56</v>
+      </c>
+      <c r="I108" t="s">
+        <v>30</v>
+      </c>
+      <c r="J108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C108" t="s">
-        <v>36</v>
-      </c>
-      <c r="D108" t="s">
-        <v>37</v>
-      </c>
-      <c r="E108" t="s">
-        <v>38</v>
-      </c>
-      <c r="F108" t="s">
-        <v>38</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H108" t="s">
-        <v>59</v>
-      </c>
-      <c r="I108" t="s">
-        <v>33</v>
-      </c>
-      <c r="J108" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="270" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="C109" t="s">
+        <v>52</v>
+      </c>
+      <c r="D109" t="s">
+        <v>268</v>
+      </c>
+      <c r="E109" t="s">
+        <v>73</v>
+      </c>
+      <c r="F109" t="s">
+        <v>73</v>
+      </c>
+      <c r="G109" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C109" t="s">
-        <v>36</v>
-      </c>
-      <c r="D109" t="s">
-        <v>91</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="H109" t="s">
+        <v>321</v>
+      </c>
+      <c r="I109" t="s">
         <v>30</v>
       </c>
-      <c r="F109" t="s">
-        <v>30</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H109" t="s">
-        <v>59</v>
-      </c>
-      <c r="I109" t="s">
-        <v>33</v>
-      </c>
       <c r="J109" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
         <v>411</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>412</v>
       </c>
       <c r="C110" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="D110" t="s">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="E110" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="F110" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
         <v>413</v>
       </c>
-      <c r="H110" t="s">
-        <v>324</v>
-      </c>
-      <c r="I110" t="s">
-        <v>33</v>
-      </c>
       <c r="J110" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
         <v>414</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>415</v>
       </c>
       <c r="C111" t="s">
-        <v>156</v>
+        <v>416</v>
       </c>
       <c r="D111" t="s">
-        <v>354</v>
+        <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>1</v>
+        <v>417</v>
       </c>
       <c r="H111" t="s">
-        <v>1</v>
+        <v>418</v>
       </c>
       <c r="I111" t="s">
-        <v>416</v>
+        <v>173</v>
       </c>
       <c r="J111" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="375" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>417</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>419</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C112" t="s">
-        <v>419</v>
+        <v>139</v>
       </c>
       <c r="D112" t="s">
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>421</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>421</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>420</v>
+        <v>165</v>
       </c>
       <c r="H112" t="s">
-        <v>421</v>
+        <v>29</v>
       </c>
       <c r="I112" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J112" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" ht="315" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>422</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>423</v>
       </c>
       <c r="C113" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D113" t="s">
-        <v>1</v>
+        <v>424</v>
       </c>
       <c r="E113" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F113" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I113" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J113" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" ht="270" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
         <v>425</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>426</v>
       </c>
       <c r="C114" t="s">
-        <v>156</v>
+        <v>354</v>
       </c>
       <c r="D114" t="s">
+        <v>314</v>
+      </c>
+      <c r="E114" t="s">
+        <v>61</v>
+      </c>
+      <c r="F114" t="s">
+        <v>61</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H114" t="s">
+        <v>213</v>
+      </c>
+      <c r="I114" t="s">
+        <v>173</v>
+      </c>
+      <c r="J114" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="E114" t="s">
-        <v>424</v>
-      </c>
-      <c r="F114" t="s">
-        <v>424</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H114" t="s">
-        <v>32</v>
-      </c>
-      <c r="I114" t="s">
-        <v>176</v>
-      </c>
-      <c r="J114" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="B115" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" t="s">
+        <v>71</v>
+      </c>
+      <c r="D115" t="s">
+        <v>277</v>
+      </c>
+      <c r="E115" t="s">
+        <v>61</v>
+      </c>
+      <c r="F115" t="s">
+        <v>61</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H115" t="s">
+        <v>279</v>
+      </c>
+      <c r="I115" t="s">
+        <v>173</v>
+      </c>
+      <c r="J115" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C115" t="s">
-        <v>357</v>
-      </c>
-      <c r="D115" t="s">
-        <v>317</v>
-      </c>
-      <c r="E115" t="s">
-        <v>64</v>
-      </c>
-      <c r="F115" t="s">
-        <v>64</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H115" t="s">
-        <v>216</v>
-      </c>
-      <c r="I115" t="s">
-        <v>176</v>
-      </c>
-      <c r="J115" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="B116" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="C116" t="s">
+        <v>153</v>
+      </c>
+      <c r="D116" t="s">
+        <v>351</v>
+      </c>
+      <c r="E116" t="s">
         <v>431</v>
       </c>
-      <c r="C116" t="s">
-        <v>74</v>
-      </c>
-      <c r="D116" t="s">
-        <v>280</v>
-      </c>
-      <c r="E116" t="s">
-        <v>64</v>
-      </c>
       <c r="F116" t="s">
-        <v>64</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>168</v>
+        <v>431</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>432</v>
       </c>
       <c r="H116" t="s">
-        <v>282</v>
+        <v>29</v>
       </c>
       <c r="I116" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J116" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>432</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>433</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C117" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="D117" t="s">
-        <v>354</v>
+        <v>435</v>
       </c>
       <c r="E117" t="s">
-        <v>434</v>
+        <v>1</v>
       </c>
       <c r="F117" t="s">
-        <v>434</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="H117" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="G117" t="s">
+        <v>165</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I117" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J117" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" ht="300" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
         <v>436</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>437</v>
       </c>
       <c r="C118" t="s">
-        <v>112</v>
+        <v>438</v>
       </c>
       <c r="D118" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E118" t="s">
+        <v>35</v>
+      </c>
+      <c r="F118" t="s">
+        <v>35</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H118" t="s">
+        <v>441</v>
+      </c>
+      <c r="I118" t="s">
+        <v>205</v>
+      </c>
+      <c r="J118" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C119" t="s">
+        <v>444</v>
+      </c>
+      <c r="D119" t="s">
+        <v>445</v>
+      </c>
+      <c r="E119" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" t="s">
+        <v>35</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H119" t="s">
+        <v>447</v>
+      </c>
+      <c r="I119" t="s">
+        <v>448</v>
+      </c>
+      <c r="J119" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="240" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C120" t="s">
+        <v>444</v>
+      </c>
+      <c r="D120" t="s">
+        <v>451</v>
+      </c>
+      <c r="E120" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" t="s">
+        <v>35</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F118" t="s">
+      <c r="H120" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="I120" t="s">
+        <v>30</v>
+      </c>
+      <c r="J120" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C121" t="s">
+        <v>444</v>
+      </c>
+      <c r="D121" t="s">
+        <v>455</v>
+      </c>
+      <c r="E121" t="s">
+        <v>35</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G121" t="s">
+        <v>456</v>
+      </c>
+      <c r="H121" t="s">
         <v>1</v>
       </c>
-      <c r="G118" t="s">
-        <v>168</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I118" t="s">
-        <v>176</v>
-      </c>
-      <c r="J118" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C119" t="s">
-        <v>441</v>
-      </c>
-      <c r="D119" t="s">
-        <v>442</v>
-      </c>
-      <c r="E119" t="s">
-        <v>38</v>
-      </c>
-      <c r="F119" t="s">
-        <v>38</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="H119" t="s">
-        <v>444</v>
-      </c>
-      <c r="I119" t="s">
-        <v>208</v>
-      </c>
-      <c r="J119" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" ht="255" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C120" t="s">
-        <v>447</v>
-      </c>
-      <c r="D120" t="s">
-        <v>448</v>
-      </c>
-      <c r="E120" t="s">
-        <v>38</v>
-      </c>
-      <c r="F120" t="s">
-        <v>38</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="H120" t="s">
-        <v>450</v>
-      </c>
-      <c r="I120" t="s">
-        <v>451</v>
-      </c>
-      <c r="J120" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" ht="240" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C121" t="s">
-        <v>447</v>
-      </c>
-      <c r="D121" t="s">
-        <v>454</v>
-      </c>
-      <c r="E121" t="s">
-        <v>38</v>
-      </c>
-      <c r="F121" t="s">
-        <v>38</v>
-      </c>
-      <c r="G121" s="2" t="s">
+      <c r="I121" t="s">
+        <v>457</v>
+      </c>
+      <c r="J121" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C122" t="s">
+        <v>460</v>
+      </c>
+      <c r="D122" t="s">
+        <v>461</v>
+      </c>
+      <c r="E122" t="s">
+        <v>35</v>
+      </c>
+      <c r="F122" t="s">
+        <v>35</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H122" t="s">
+        <v>463</v>
+      </c>
+      <c r="I122" t="s">
+        <v>464</v>
+      </c>
+      <c r="J122" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C123" t="s">
+        <v>467</v>
+      </c>
+      <c r="D123" t="s">
+        <v>468</v>
+      </c>
+      <c r="E123" t="s">
+        <v>35</v>
+      </c>
+      <c r="F123" t="s">
+        <v>35</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="H123" t="s">
+        <v>470</v>
+      </c>
+      <c r="I123" t="s">
+        <v>471</v>
+      </c>
+      <c r="J123" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C124" t="s">
+        <v>467</v>
+      </c>
+      <c r="D124" t="s">
+        <v>468</v>
+      </c>
+      <c r="E124" t="s">
+        <v>35</v>
+      </c>
+      <c r="F124" t="s">
+        <v>35</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H121" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="I121" t="s">
-        <v>33</v>
-      </c>
-      <c r="J121" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="C122" t="s">
-        <v>447</v>
-      </c>
-      <c r="D122" t="s">
-        <v>458</v>
-      </c>
-      <c r="E122" t="s">
-        <v>38</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G122" t="s">
-        <v>459</v>
-      </c>
-      <c r="H122" t="s">
-        <v>1</v>
-      </c>
-      <c r="I122" t="s">
-        <v>460</v>
-      </c>
-      <c r="J122" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" ht="255" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C123" t="s">
-        <v>463</v>
-      </c>
-      <c r="D123" t="s">
-        <v>464</v>
-      </c>
-      <c r="E123" t="s">
-        <v>38</v>
-      </c>
-      <c r="F123" t="s">
-        <v>38</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="H123" t="s">
-        <v>466</v>
-      </c>
-      <c r="I123" t="s">
-        <v>467</v>
-      </c>
-      <c r="J123" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" ht="345" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C124" t="s">
-        <v>470</v>
-      </c>
-      <c r="D124" t="s">
-        <v>471</v>
-      </c>
-      <c r="E124" t="s">
-        <v>38</v>
-      </c>
-      <c r="F124" t="s">
-        <v>38</v>
-      </c>
-      <c r="G124" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="H124" t="s">
-        <v>473</v>
+      <c r="H124" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="I124" t="s">
-        <v>474</v>
+        <v>30</v>
       </c>
       <c r="J124" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" ht="360" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="345" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
         <v>475</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>476</v>
       </c>
       <c r="C125" t="s">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="D125" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>1</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I125" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J125" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" ht="345" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>478</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>479</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C126" t="s">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>1</v>
@@ -6613,62 +6617,62 @@
         <v>481</v>
       </c>
       <c r="I126" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J126" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
         <v>482</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>483</v>
       </c>
       <c r="C127" t="s">
-        <v>1</v>
+        <v>484</v>
       </c>
       <c r="D127" t="s">
-        <v>1</v>
+        <v>485</v>
       </c>
       <c r="E127" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H127" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="I127" t="s">
-        <v>33</v>
+      <c r="H127" t="s">
+        <v>1</v>
+      </c>
+      <c r="I127" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="J127" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>485</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>487</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C128" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D128" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>1</v>
@@ -6677,30 +6681,30 @@
         <v>1</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="J128" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" ht="285" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>490</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C129" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D129" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>1</v>
@@ -6709,42 +6713,10 @@
         <v>1</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="J129" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" ht="210" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="C130" t="s">
-        <v>497</v>
-      </c>
-      <c r="D130" t="s">
-        <v>498</v>
-      </c>
-      <c r="E130" t="s">
-        <v>38</v>
-      </c>
-      <c r="F130" t="s">
-        <v>38</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H130" t="s">
-        <v>1</v>
-      </c>
-      <c r="I130" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="J130" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6756,9 +6728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C299"/>
   <sheetViews>
-    <sheetView topLeftCell="A277" workbookViewId="0">
-      <selection sqref="A1:C299"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6767,15 +6737,15 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -6787,7 +6757,7 @@
         <v>701</v>
       </c>
       <c r="C3" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -6799,7 +6769,7 @@
         <v>646</v>
       </c>
       <c r="C4" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -6811,7 +6781,7 @@
         <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6823,7 +6793,7 @@
         <v>253</v>
       </c>
       <c r="C6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -6835,7 +6805,7 @@
         <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -6847,7 +6817,7 @@
         <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -6859,7 +6829,7 @@
         <v>125</v>
       </c>
       <c r="C9" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -6871,7 +6841,7 @@
         <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -6883,7 +6853,7 @@
         <v>125</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -6895,7 +6865,7 @@
         <v>209</v>
       </c>
       <c r="C12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -6907,7 +6877,7 @@
         <v>128</v>
       </c>
       <c r="C13" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -6919,7 +6889,7 @@
         <v>195</v>
       </c>
       <c r="C14" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -6931,7 +6901,7 @@
         <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -6943,7 +6913,7 @@
         <v>133</v>
       </c>
       <c r="C16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -6955,7 +6925,7 @@
         <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -6967,7 +6937,7 @@
         <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -6979,7 +6949,7 @@
         <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6991,7 +6961,7 @@
         <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -7003,7 +6973,7 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -7015,7 +6985,7 @@
         <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -7027,7 +6997,7 @@
         <v>97</v>
       </c>
       <c r="C23" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -7039,7 +7009,7 @@
         <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -7051,7 +7021,7 @@
         <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -7063,7 +7033,7 @@
         <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -7075,7 +7045,7 @@
         <v>331</v>
       </c>
       <c r="C27" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -7087,7 +7057,7 @@
         <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -7099,7 +7069,7 @@
         <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -7111,7 +7081,7 @@
         <v>145</v>
       </c>
       <c r="C30" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -7123,7 +7093,7 @@
         <v>145</v>
       </c>
       <c r="C31" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -7135,7 +7105,7 @@
         <v>203</v>
       </c>
       <c r="C32" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -7147,7 +7117,7 @@
         <v>200</v>
       </c>
       <c r="C33" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7159,7 +7129,7 @@
         <v>200</v>
       </c>
       <c r="C34" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -7171,7 +7141,7 @@
         <v>208</v>
       </c>
       <c r="C35" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -7183,7 +7153,7 @@
         <v>138</v>
       </c>
       <c r="C36" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -7195,7 +7165,7 @@
         <v>138</v>
       </c>
       <c r="C37" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -7207,7 +7177,7 @@
         <v>209</v>
       </c>
       <c r="C38" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -7219,7 +7189,7 @@
         <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -7231,7 +7201,7 @@
         <v>194</v>
       </c>
       <c r="C40" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -7243,7 +7213,7 @@
         <v>130</v>
       </c>
       <c r="C41" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -7255,7 +7225,7 @@
         <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -7267,7 +7237,7 @@
         <v>249</v>
       </c>
       <c r="C43" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -7279,7 +7249,7 @@
         <v>508</v>
       </c>
       <c r="C44" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -7291,7 +7261,7 @@
         <v>436</v>
       </c>
       <c r="C45" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -7303,7 +7273,7 @@
         <v>437</v>
       </c>
       <c r="C46" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -7315,7 +7285,7 @@
         <v>438</v>
       </c>
       <c r="C47" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -7327,7 +7297,7 @@
         <v>113</v>
       </c>
       <c r="C48" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -7339,7 +7309,7 @@
         <v>251</v>
       </c>
       <c r="C49" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -7351,7 +7321,7 @@
         <v>243</v>
       </c>
       <c r="C50" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -7363,7 +7333,7 @@
         <v>256</v>
       </c>
       <c r="C51" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -7375,7 +7345,7 @@
         <v>703</v>
       </c>
       <c r="C52" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -7387,7 +7357,7 @@
         <v>706</v>
       </c>
       <c r="C53" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -7399,7 +7369,7 @@
         <v>347</v>
       </c>
       <c r="C54" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -7411,7 +7381,7 @@
         <v>327</v>
       </c>
       <c r="C55" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -7423,7 +7393,7 @@
         <v>540</v>
       </c>
       <c r="C56" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -7435,7 +7405,7 @@
         <v>243</v>
       </c>
       <c r="C57" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -7447,7 +7417,7 @@
         <v>244</v>
       </c>
       <c r="C58" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -7459,7 +7429,7 @@
         <v>643</v>
       </c>
       <c r="C59" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -7471,7 +7441,7 @@
         <v>644</v>
       </c>
       <c r="C60" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -7483,7 +7453,7 @@
         <v>276</v>
       </c>
       <c r="C61" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -7495,7 +7465,7 @@
         <v>243</v>
       </c>
       <c r="C62" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -7507,7 +7477,7 @@
         <v>246</v>
       </c>
       <c r="C63" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -7519,7 +7489,7 @@
         <v>242</v>
       </c>
       <c r="C64" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -7531,7 +7501,7 @@
         <v>96</v>
       </c>
       <c r="C65" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -7543,7 +7513,7 @@
         <v>240</v>
       </c>
       <c r="C66" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -7555,7 +7525,7 @@
         <v>347</v>
       </c>
       <c r="C67" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -7567,7 +7537,7 @@
         <v>247</v>
       </c>
       <c r="C68" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -7579,7 +7549,7 @@
         <v>701</v>
       </c>
       <c r="C69" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -7591,7 +7561,7 @@
         <v>699</v>
       </c>
       <c r="C70" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -7603,7 +7573,7 @@
         <v>700</v>
       </c>
       <c r="C71" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -7615,7 +7585,7 @@
         <v>137</v>
       </c>
       <c r="C72" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -7627,7 +7597,7 @@
         <v>200</v>
       </c>
       <c r="C73" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -7639,7 +7609,7 @@
         <v>292</v>
       </c>
       <c r="C74" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -7651,7 +7621,7 @@
         <v>631</v>
       </c>
       <c r="C75" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -7663,7 +7633,7 @@
         <v>701</v>
       </c>
       <c r="C76" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -7675,7 +7645,7 @@
         <v>699</v>
       </c>
       <c r="C77" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -7687,7 +7657,7 @@
         <v>700</v>
       </c>
       <c r="C78" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -7699,7 +7669,7 @@
         <v>699</v>
       </c>
       <c r="C79" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -7711,7 +7681,7 @@
         <v>700</v>
       </c>
       <c r="C80" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -7723,7 +7693,7 @@
         <v>447</v>
       </c>
       <c r="C81" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -7735,7 +7705,7 @@
         <v>172</v>
       </c>
       <c r="C82" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -7747,7 +7717,7 @@
         <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -7759,7 +7729,7 @@
         <v>321</v>
       </c>
       <c r="C84" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -7771,7 +7741,7 @@
         <v>113</v>
       </c>
       <c r="C85" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -7783,7 +7753,7 @@
         <v>230</v>
       </c>
       <c r="C86" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -7795,7 +7765,7 @@
         <v>262</v>
       </c>
       <c r="C87" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -7807,7 +7777,7 @@
         <v>264</v>
       </c>
       <c r="C88" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -7819,7 +7789,7 @@
         <v>266</v>
       </c>
       <c r="C89" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -7831,7 +7801,7 @@
         <v>267</v>
       </c>
       <c r="C90" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -7843,7 +7813,7 @@
         <v>268</v>
       </c>
       <c r="C91" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -7855,7 +7825,7 @@
         <v>271</v>
       </c>
       <c r="C92" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -7867,7 +7837,7 @@
         <v>298</v>
       </c>
       <c r="C93" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -7879,7 +7849,7 @@
         <v>491</v>
       </c>
       <c r="C94" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -7891,7 +7861,7 @@
         <v>631</v>
       </c>
       <c r="C95" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -7903,7 +7873,7 @@
         <v>632</v>
       </c>
       <c r="C96" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -7915,7 +7885,7 @@
         <v>65</v>
       </c>
       <c r="C97" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -7927,7 +7897,7 @@
         <v>699</v>
       </c>
       <c r="C98" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -7939,7 +7909,7 @@
         <v>700</v>
       </c>
       <c r="C99" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -7951,7 +7921,7 @@
         <v>219</v>
       </c>
       <c r="C100" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -7963,7 +7933,7 @@
         <v>131</v>
       </c>
       <c r="C101" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -7975,7 +7945,7 @@
         <v>280</v>
       </c>
       <c r="C102" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -7987,7 +7957,7 @@
         <v>477</v>
       </c>
       <c r="C103" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -7999,7 +7969,7 @@
         <v>700</v>
       </c>
       <c r="C104" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -8011,7 +7981,7 @@
         <v>699</v>
       </c>
       <c r="C105" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -8023,7 +7993,7 @@
         <v>435</v>
       </c>
       <c r="C106" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -8035,7 +8005,7 @@
         <v>699</v>
       </c>
       <c r="C107" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -8047,7 +8017,7 @@
         <v>700</v>
       </c>
       <c r="C108" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -8059,7 +8029,7 @@
         <v>708</v>
       </c>
       <c r="C109" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -8071,7 +8041,7 @@
         <v>174</v>
       </c>
       <c r="C110" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -8083,7 +8053,7 @@
         <v>57</v>
       </c>
       <c r="C111" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -8095,7 +8065,7 @@
         <v>180</v>
       </c>
       <c r="C112" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -8107,7 +8077,7 @@
         <v>139</v>
       </c>
       <c r="C113" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -8119,7 +8089,7 @@
         <v>140</v>
       </c>
       <c r="C114" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -8131,7 +8101,7 @@
         <v>187</v>
       </c>
       <c r="C115" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -8143,7 +8113,7 @@
         <v>188</v>
       </c>
       <c r="C116" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -8155,7 +8125,7 @@
         <v>189</v>
       </c>
       <c r="C117" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -8167,7 +8137,7 @@
         <v>200</v>
       </c>
       <c r="C118" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -8179,7 +8149,7 @@
         <v>208</v>
       </c>
       <c r="C119" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -8191,7 +8161,7 @@
         <v>646</v>
       </c>
       <c r="C120" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -8203,7 +8173,7 @@
         <v>647</v>
       </c>
       <c r="C121" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -8215,7 +8185,7 @@
         <v>651</v>
       </c>
       <c r="C122" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -8227,7 +8197,7 @@
         <v>652</v>
       </c>
       <c r="C123" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -8239,7 +8209,7 @@
         <v>116</v>
       </c>
       <c r="C124" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -8251,7 +8221,7 @@
         <v>707</v>
       </c>
       <c r="C125" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -8263,7 +8233,7 @@
         <v>279</v>
       </c>
       <c r="C126" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -8275,7 +8245,7 @@
         <v>277</v>
       </c>
       <c r="C127" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -8287,7 +8257,7 @@
         <v>137</v>
       </c>
       <c r="C128" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -8299,7 +8269,7 @@
         <v>133</v>
       </c>
       <c r="C129" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -8311,7 +8281,7 @@
         <v>134</v>
       </c>
       <c r="C130" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -8323,7 +8293,7 @@
         <v>137</v>
       </c>
       <c r="C131" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -8335,7 +8305,7 @@
         <v>208</v>
       </c>
       <c r="C132" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -8347,7 +8317,7 @@
         <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -8359,7 +8329,7 @@
         <v>162</v>
       </c>
       <c r="C134" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -8371,7 +8341,7 @@
         <v>163</v>
       </c>
       <c r="C135" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -8383,7 +8353,7 @@
         <v>190</v>
       </c>
       <c r="C136" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -8395,7 +8365,7 @@
         <v>305</v>
       </c>
       <c r="C137" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -8407,7 +8377,7 @@
         <v>306</v>
       </c>
       <c r="C138" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -8419,7 +8389,7 @@
         <v>307</v>
       </c>
       <c r="C139" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -8431,7 +8401,7 @@
         <v>137</v>
       </c>
       <c r="C140" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -8443,7 +8413,7 @@
         <v>200</v>
       </c>
       <c r="C141" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -8455,7 +8425,7 @@
         <v>133</v>
       </c>
       <c r="C142" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -8467,7 +8437,7 @@
         <v>208</v>
       </c>
       <c r="C143" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -8479,7 +8449,7 @@
         <v>140</v>
       </c>
       <c r="C144" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -8491,7 +8461,7 @@
         <v>127</v>
       </c>
       <c r="C145" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -8503,7 +8473,7 @@
         <v>137</v>
       </c>
       <c r="C146" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -8515,7 +8485,7 @@
         <v>140</v>
       </c>
       <c r="C147" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -8527,7 +8497,7 @@
         <v>155</v>
       </c>
       <c r="C148" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -8539,7 +8509,7 @@
         <v>208</v>
       </c>
       <c r="C149" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -8551,7 +8521,7 @@
         <v>146</v>
       </c>
       <c r="C150" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -8563,7 +8533,7 @@
         <v>127</v>
       </c>
       <c r="C151" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -8575,7 +8545,7 @@
         <v>140</v>
       </c>
       <c r="C152" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -8587,7 +8557,7 @@
         <v>200</v>
       </c>
       <c r="C153" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -8599,7 +8569,7 @@
         <v>208</v>
       </c>
       <c r="C154" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -8611,7 +8581,7 @@
         <v>127</v>
       </c>
       <c r="C155" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -8623,7 +8593,7 @@
         <v>137</v>
       </c>
       <c r="C156" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -8635,7 +8605,7 @@
         <v>140</v>
       </c>
       <c r="C157" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -8647,7 +8617,7 @@
         <v>200</v>
       </c>
       <c r="C158" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -8659,7 +8629,7 @@
         <v>127</v>
       </c>
       <c r="C159" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -8671,7 +8641,7 @@
         <v>139</v>
       </c>
       <c r="C160" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -8683,7 +8653,7 @@
         <v>137</v>
       </c>
       <c r="C161" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -8695,7 +8665,7 @@
         <v>127</v>
       </c>
       <c r="C162" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -8707,7 +8677,7 @@
         <v>137</v>
       </c>
       <c r="C163" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -8719,7 +8689,7 @@
         <v>140</v>
       </c>
       <c r="C164" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -8731,7 +8701,7 @@
         <v>137</v>
       </c>
       <c r="C165" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -8743,7 +8713,7 @@
         <v>208</v>
       </c>
       <c r="C166" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -8755,7 +8725,7 @@
         <v>127</v>
       </c>
       <c r="C167" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -8767,7 +8737,7 @@
         <v>200</v>
       </c>
       <c r="C168" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -8779,7 +8749,7 @@
         <v>127</v>
       </c>
       <c r="C169" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -8791,7 +8761,7 @@
         <v>127</v>
       </c>
       <c r="C170" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -8803,7 +8773,7 @@
         <v>127</v>
       </c>
       <c r="C171" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -8815,7 +8785,7 @@
         <v>137</v>
       </c>
       <c r="C172" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -8827,7 +8797,7 @@
         <v>140</v>
       </c>
       <c r="C173" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -8839,7 +8809,7 @@
         <v>127</v>
       </c>
       <c r="C174" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -8851,7 +8821,7 @@
         <v>137</v>
       </c>
       <c r="C175" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -8863,7 +8833,7 @@
         <v>140</v>
       </c>
       <c r="C176" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -8875,7 +8845,7 @@
         <v>207</v>
       </c>
       <c r="C177" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -8887,7 +8857,7 @@
         <v>200</v>
       </c>
       <c r="C178" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -8899,7 +8869,7 @@
         <v>127</v>
       </c>
       <c r="C179" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -8911,7 +8881,7 @@
         <v>208</v>
       </c>
       <c r="C180" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -8923,7 +8893,7 @@
         <v>127</v>
       </c>
       <c r="C181" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -8935,7 +8905,7 @@
         <v>140</v>
       </c>
       <c r="C182" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -8947,7 +8917,7 @@
         <v>200</v>
       </c>
       <c r="C183" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -8959,7 +8929,7 @@
         <v>208</v>
       </c>
       <c r="C184" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -8971,7 +8941,7 @@
         <v>127</v>
       </c>
       <c r="C185" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -8983,7 +8953,7 @@
         <v>137</v>
       </c>
       <c r="C186" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -8995,7 +8965,7 @@
         <v>137</v>
       </c>
       <c r="C187" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -9007,7 +8977,7 @@
         <v>127</v>
       </c>
       <c r="C188" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -9019,7 +8989,7 @@
         <v>127</v>
       </c>
       <c r="C189" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -9031,7 +9001,7 @@
         <v>140</v>
       </c>
       <c r="C190" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -9043,7 +9013,7 @@
         <v>156</v>
       </c>
       <c r="C191" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -9055,7 +9025,7 @@
         <v>207</v>
       </c>
       <c r="C192" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -9067,7 +9037,7 @@
         <v>134</v>
       </c>
       <c r="C193" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -9079,7 +9049,7 @@
         <v>137</v>
       </c>
       <c r="C194" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -9091,7 +9061,7 @@
         <v>144</v>
       </c>
       <c r="C195" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -9103,7 +9073,7 @@
         <v>134</v>
       </c>
       <c r="C196" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -9115,7 +9085,7 @@
         <v>194</v>
       </c>
       <c r="C197" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -9127,7 +9097,7 @@
         <v>135</v>
       </c>
       <c r="C198" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -9139,7 +9109,7 @@
         <v>136</v>
       </c>
       <c r="C199" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -9151,7 +9121,7 @@
         <v>133</v>
       </c>
       <c r="C200" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -9163,7 +9133,7 @@
         <v>134</v>
       </c>
       <c r="C201" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -9175,7 +9145,7 @@
         <v>137</v>
       </c>
       <c r="C202" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -9187,7 +9157,7 @@
         <v>133</v>
       </c>
       <c r="C203" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -9199,7 +9169,7 @@
         <v>137</v>
       </c>
       <c r="C204" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -9211,7 +9181,7 @@
         <v>133</v>
       </c>
       <c r="C205" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -9223,7 +9193,7 @@
         <v>137</v>
       </c>
       <c r="C206" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
@@ -9235,7 +9205,7 @@
         <v>194</v>
       </c>
       <c r="C207" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
@@ -9247,7 +9217,7 @@
         <v>134</v>
       </c>
       <c r="C208" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
@@ -9259,7 +9229,7 @@
         <v>134</v>
       </c>
       <c r="C209" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
@@ -9271,7 +9241,7 @@
         <v>194</v>
       </c>
       <c r="C210" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
@@ -9283,7 +9253,7 @@
         <v>133</v>
       </c>
       <c r="C211" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -9295,7 +9265,7 @@
         <v>133</v>
       </c>
       <c r="C212" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
@@ -9307,7 +9277,7 @@
         <v>134</v>
       </c>
       <c r="C213" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
@@ -9319,7 +9289,7 @@
         <v>194</v>
       </c>
       <c r="C214" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -9331,7 +9301,7 @@
         <v>125</v>
       </c>
       <c r="C215" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -9343,7 +9313,7 @@
         <v>125</v>
       </c>
       <c r="C216" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -9355,7 +9325,7 @@
         <v>136</v>
       </c>
       <c r="C217" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -9367,7 +9337,7 @@
         <v>140</v>
       </c>
       <c r="C218" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -9379,7 +9349,7 @@
         <v>195</v>
       </c>
       <c r="C219" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -9391,7 +9361,7 @@
         <v>200</v>
       </c>
       <c r="C220" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -9403,7 +9373,7 @@
         <v>204</v>
       </c>
       <c r="C221" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -9415,7 +9385,7 @@
         <v>208</v>
       </c>
       <c r="C222" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -9427,7 +9397,7 @@
         <v>125</v>
       </c>
       <c r="C223" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -9439,7 +9409,7 @@
         <v>127</v>
       </c>
       <c r="C224" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -9451,7 +9421,7 @@
         <v>119</v>
       </c>
       <c r="C225" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -9463,7 +9433,7 @@
         <v>140</v>
       </c>
       <c r="C226" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -9475,7 +9445,7 @@
         <v>140</v>
       </c>
       <c r="C227" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -9487,7 +9457,7 @@
         <v>200</v>
       </c>
       <c r="C228" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -9499,7 +9469,7 @@
         <v>208</v>
       </c>
       <c r="C229" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -9511,7 +9481,7 @@
         <v>209</v>
       </c>
       <c r="C230" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -9523,7 +9493,7 @@
         <v>140</v>
       </c>
       <c r="C231" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -9535,7 +9505,7 @@
         <v>153</v>
       </c>
       <c r="C232" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -9547,7 +9517,7 @@
         <v>200</v>
       </c>
       <c r="C233" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -9559,7 +9529,7 @@
         <v>208</v>
       </c>
       <c r="C234" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -9571,7 +9541,7 @@
         <v>209</v>
       </c>
       <c r="C235" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -9583,7 +9553,7 @@
         <v>533</v>
       </c>
       <c r="C236" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -9595,7 +9565,7 @@
         <v>534</v>
       </c>
       <c r="C237" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -9607,7 +9577,7 @@
         <v>79</v>
       </c>
       <c r="C238" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -9619,7 +9589,7 @@
         <v>345</v>
       </c>
       <c r="C239" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -9631,7 +9601,7 @@
         <v>332</v>
       </c>
       <c r="C240" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -9643,7 +9613,7 @@
         <v>518</v>
       </c>
       <c r="C241" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
@@ -9655,7 +9625,7 @@
         <v>178</v>
       </c>
       <c r="C242" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
@@ -9667,7 +9637,7 @@
         <v>181</v>
       </c>
       <c r="C243" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -9679,7 +9649,7 @@
         <v>208</v>
       </c>
       <c r="C244" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -9691,7 +9661,7 @@
         <v>171</v>
       </c>
       <c r="C245" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
@@ -9703,7 +9673,7 @@
         <v>171</v>
       </c>
       <c r="C246" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -9715,7 +9685,7 @@
         <v>178</v>
       </c>
       <c r="C247" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -9727,7 +9697,7 @@
         <v>180</v>
       </c>
       <c r="C248" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -9739,7 +9709,7 @@
         <v>200</v>
       </c>
       <c r="C249" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -9751,7 +9721,7 @@
         <v>209</v>
       </c>
       <c r="C250" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -9763,7 +9733,7 @@
         <v>279</v>
       </c>
       <c r="C251" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -9775,7 +9745,7 @@
         <v>495</v>
       </c>
       <c r="C252" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -9787,7 +9757,7 @@
         <v>706</v>
       </c>
       <c r="C253" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -9799,7 +9769,7 @@
         <v>284</v>
       </c>
       <c r="C254" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -9811,7 +9781,7 @@
         <v>378</v>
       </c>
       <c r="C255" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -9823,7 +9793,7 @@
         <v>234</v>
       </c>
       <c r="C256" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -9835,7 +9805,7 @@
         <v>125</v>
       </c>
       <c r="C257" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -9847,7 +9817,7 @@
         <v>219</v>
       </c>
       <c r="C258" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -9859,7 +9829,7 @@
         <v>229</v>
       </c>
       <c r="C259" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
@@ -9871,7 +9841,7 @@
         <v>230</v>
       </c>
       <c r="C260" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -9883,7 +9853,7 @@
         <v>631</v>
       </c>
       <c r="C261" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -9895,7 +9865,7 @@
         <v>632</v>
       </c>
       <c r="C262" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -9907,7 +9877,7 @@
         <v>79</v>
       </c>
       <c r="C263" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -9919,7 +9889,7 @@
         <v>443</v>
       </c>
       <c r="C264" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -9931,7 +9901,7 @@
         <v>444</v>
       </c>
       <c r="C265" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
@@ -9943,7 +9913,7 @@
         <v>57</v>
       </c>
       <c r="C266" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
@@ -9955,7 +9925,7 @@
         <v>491</v>
       </c>
       <c r="C267" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
@@ -9967,7 +9937,7 @@
         <v>494</v>
       </c>
       <c r="C268" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
@@ -9979,7 +9949,7 @@
         <v>631</v>
       </c>
       <c r="C269" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
@@ -9991,7 +9961,7 @@
         <v>631</v>
       </c>
       <c r="C270" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -10003,7 +9973,7 @@
         <v>703</v>
       </c>
       <c r="C271" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -10015,7 +9985,7 @@
         <v>631</v>
       </c>
       <c r="C272" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
@@ -10027,7 +9997,7 @@
         <v>332</v>
       </c>
       <c r="C273" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -10039,7 +10009,7 @@
         <v>631</v>
       </c>
       <c r="C274" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -10051,7 +10021,7 @@
         <v>330</v>
       </c>
       <c r="C275" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
@@ -10063,7 +10033,7 @@
         <v>631</v>
       </c>
       <c r="C276" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
@@ -10075,7 +10045,7 @@
         <v>631</v>
       </c>
       <c r="C277" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -10084,10 +10054,10 @@
         <v>194</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -10096,10 +10066,10 @@
         <v>194</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
@@ -10108,10 +10078,10 @@
         <v>194</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
@@ -10120,10 +10090,10 @@
         <v>194</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
@@ -10132,10 +10102,10 @@
         <v>247</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
@@ -10144,10 +10114,10 @@
         <v>247</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
@@ -10156,10 +10126,10 @@
         <v>247</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
@@ -10168,10 +10138,10 @@
         <v>247</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -10180,10 +10150,10 @@
         <v>631</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -10192,10 +10162,10 @@
         <v>631</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -10204,10 +10174,10 @@
         <v>631</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -10216,10 +10186,10 @@
         <v>631</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -10228,10 +10198,10 @@
         <v>631</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -10240,10 +10210,10 @@
         <v>631</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -10252,10 +10222,10 @@
         <v>631</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -10264,10 +10234,10 @@
         <v>631</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -10276,10 +10246,10 @@
         <v>631</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -10288,10 +10258,10 @@
         <v>631</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -10300,10 +10270,10 @@
         <v>631</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -10312,10 +10282,10 @@
         <v>631</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -10324,10 +10294,10 @@
         <v>631</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -10336,10 +10306,10 @@
         <v>631</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>

--- a/Blik/processen.xlsx
+++ b/Blik/processen.xlsx
@@ -2716,7 +2716,7 @@
   <dimension ref="A1:L129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Blik/processen.xlsx
+++ b/Blik/processen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="7230"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Handelingen" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="499">
   <si>
     <t>[Handeling]</t>
   </si>
@@ -673,9 +673,6 @@
   </si>
   <si>
     <t>V 5 jaar.</t>
-  </si>
-  <si>
-    <t>Het verlenen van toestemmig voor het laten vervaardigen en in voorraad hebben van keurmerken volgens EG-richtlijnen</t>
   </si>
   <si>
     <t>V 5 jaar na vervallen toestemming</t>
@@ -1529,6 +1526,12 @@
   </si>
   <si>
     <t>1986-</t>
+  </si>
+  <si>
+    <t>domein</t>
+  </si>
+  <si>
+    <t>Het verlenen van toestemming voor het laten vervaardigen en in voorraad hebben van keurmerken volgens EG-richtlijnen</t>
   </si>
 </sst>
 </file>
@@ -1564,11 +1567,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1870,25 +1877,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I129"/>
+    <sheetView topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="6" max="6" width="53.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="2" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="53.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1896,28 +1904,31 @@
         <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1925,3559 +1936,3689 @@
         <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
+      <c r="F10" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
+      <c r="F11" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
+      <c r="F12" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
+      <c r="F14" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J14" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J15" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J16" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J17" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J18" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J20" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="J21" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J22" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
+      <c r="F23" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J23" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1">
+      <c r="E24" s="1"/>
+      <c r="F24" s="2">
         <v>1965</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J24" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J25" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="J26" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J27" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J28" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J29" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J30" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J31" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C32" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
+      <c r="F32" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J32" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C33" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
+      <c r="E33" s="1"/>
+      <c r="F33" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J33" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J34" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
+      <c r="E35" s="1"/>
+      <c r="F35" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J35" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J36" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="F37" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J37" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="F38" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J38" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C39" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="F39" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J39" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C40" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>232</v>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J40" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C41" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>232</v>
+      <c r="F41" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J41" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="F42" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J42" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C43" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="J43" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J44" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1" t="s">
+      <c r="F45" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J45" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1" t="s">
+      <c r="F46" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="J46" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1" t="s">
+      <c r="F47" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J47" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="F48" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="J48" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="I49" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="F50" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="I50" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C51" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J51" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="F52" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="I52" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="E53" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F53" s="2">
         <v>1992</v>
       </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="1"/>
+      <c r="H53" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="I53" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J53" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>232</v>
+      <c r="F54" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="I54" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C55" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E55" s="1">
+      <c r="E55" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F55" s="2">
         <v>1992</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="1"/>
+      <c r="H55" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="375" x14ac:dyDescent="0.25">
+      <c r="J55" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="375" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="F56" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="I56" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J56" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C57" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I57" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J58" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H59" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I59" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="F60" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H60" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I60" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J61" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="F62" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="G62" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I62" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="H63" s="1" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C64" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="F64" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I64" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F65" s="1"/>
+      <c r="F65" s="2" t="s">
+        <v>481</v>
+      </c>
       <c r="G65" s="1"/>
-      <c r="H65" s="1" t="s">
+      <c r="H65" s="1"/>
+      <c r="I65" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J65" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="F66" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H66" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I66" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I67" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="F68" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="F68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J68" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>232</v>
+      <c r="F69" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="G69" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H69" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="I69" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J69" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H70" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J70" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H71" s="1" t="s">
+      <c r="I71" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J71" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="I72" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C73" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1" t="s">
+      <c r="F73" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H73" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="I73" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C74" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
-        <v>319</v>
-      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I74" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J74" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C75" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
+      <c r="F75" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="I75" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C76" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
+      <c r="E76" s="1"/>
+      <c r="F76" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="I76" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J77" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C78" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1" t="s">
+      <c r="F78" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="I78" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>228</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H79" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J79" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>232</v>
+      <c r="F80" s="2" t="s">
+        <v>478</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C81" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>232</v>
+      <c r="F81" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="G81" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H81" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I81" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="F82" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J82" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>232</v>
+      <c r="F83" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="G83" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H83" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I83" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C84" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E84" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>232</v>
+      <c r="F84" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="G84" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H84" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I84" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I85" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C86" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
+      <c r="F86" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H86" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="I86" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B87" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H87" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I87" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B88" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="F88" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I88" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="F89" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="F89" s="1" t="s">
+      <c r="H89" s="1"/>
+      <c r="I89" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J89" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="F90" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="E91" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I91" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="J91" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>228</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I92" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C93" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>232</v>
+      <c r="E93" s="1"/>
+      <c r="F93" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="G93" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I93" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>236</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>232</v>
+        <v>287</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="G94" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="I94" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C95" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>232</v>
+      <c r="F95" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="G95" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I95" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B96" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>232</v>
+      <c r="F96" s="2" t="s">
+        <v>489</v>
       </c>
       <c r="G96" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I96" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="315" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H97" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I97" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B98" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>232</v>
+      <c r="F98" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="G98" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I98" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C99" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>232</v>
+      <c r="F99" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="G99" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H99" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I99" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C100" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>232</v>
+      <c r="F100" s="2" t="s">
+        <v>491</v>
       </c>
       <c r="G100" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="I100" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="J100" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B101" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E101" s="1"/>
+      <c r="F101" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="I101" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H102" s="1" t="s">
+      <c r="I102" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J102" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1" t="s">
-        <v>294</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="G103" s="1"/>
       <c r="H103" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I103" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J103" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C104" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D104" s="1"/>
-      <c r="E104" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>232</v>
+      <c r="E104" s="1"/>
+      <c r="F104" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="G104" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I104" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="E105" s="1"/>
-      <c r="F105" s="1" t="s">
+      <c r="H105" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="I105" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J105" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C106" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1" t="s">
+      <c r="E106" s="1"/>
+      <c r="F106" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I106" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C107" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>232</v>
+      <c r="F107" s="2" t="s">
+        <v>459</v>
       </c>
       <c r="G107" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="I107" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="J107" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C108" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>232</v>
+      <c r="F108" s="2" t="s">
+        <v>458</v>
       </c>
       <c r="G108" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="I108" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J108" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G109" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="H109" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="I109" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="J109" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B110" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="J110" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B111" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="E111" s="1"/>
+      <c r="F111" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I111" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C112" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>232</v>
+      <c r="E112" s="1"/>
+      <c r="F112" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="G112" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H112" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I112" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>232</v>
+      <c r="F113" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="G113" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H113" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I113" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>357</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>232</v>
+        <v>330</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C115" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="E115" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>232</v>
+        <v>305</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>463</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>308</v>
+        <v>231</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B116" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="G116" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G116" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I116" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E117" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E117" s="1"/>
-      <c r="F117" s="1" t="s">
-        <v>232</v>
-      </c>
+      <c r="F117" s="2"/>
       <c r="G117" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="H117" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="I117" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="F118" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G118" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F118" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>259</v>
-      </c>
       <c r="I118" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="E119" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="F119" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F119" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="I119" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="J119" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="F120" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E120" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1" t="s">
+      <c r="I120" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="H120" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I120" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" s="1"/>
+      <c r="D121" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D121" s="1" t="s">
+      <c r="F121" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F121" s="1" t="s">
+      <c r="H121" s="1"/>
+      <c r="I121" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="I121" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="J121" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="F122" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F122" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="I122" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="J122" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="I122" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" s="1"/>
+      <c r="D123" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="E123" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="F123" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="E123" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F123" s="1" t="s">
+      <c r="H123" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="I123" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="J123" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="H124" s="1" t="s">
+      <c r="I124" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I124" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="J124" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D125" s="1" t="s">
+      <c r="F125" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E125" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="H125" s="1" t="s">
+      <c r="I125" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J125" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1" t="s">
-        <v>442</v>
-      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G126" s="1"/>
       <c r="H126" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="I126" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="J126" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B127" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="E127" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="F127" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E127" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1" t="s">
+      <c r="J127" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="1"/>
+      <c r="D128" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="E128" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="F128" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E128" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1" t="s">
+      <c r="J128" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" s="1"/>
+      <c r="D129" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="E129" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="F129" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E129" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="I129" s="1" t="s">
+      <c r="J129" s="1" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5490,7 +5631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B299"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B299"/>
     </sheetView>
   </sheetViews>

--- a/Blik/processen.xlsx
+++ b/Blik/processen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="14355" windowHeight="7230" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="7170"/>
   </bookViews>
   <sheets>
     <sheet name="Handelingen" sheetId="1" r:id="rId1"/>
@@ -1879,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5631,7 +5631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B299"/>
     </sheetView>
   </sheetViews>
